--- a/output/3Y_P16_KFSDIV.xlsx
+++ b/output/3Y_P16_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -3680,10 +3683,10 @@
         <v>156948.2586</v>
       </c>
       <c r="K16" s="1">
-        <v>127426.3816</v>
+        <v>127441.1894</v>
       </c>
       <c r="L16" s="1">
-        <v>13.232</v>
+        <v>13.2336</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -3733,10 +3736,10 @@
         <v>152996.538</v>
       </c>
       <c r="K17" s="1">
-        <v>143302.5672</v>
+        <v>143317.375</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3119</v>
+        <v>13.3133</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -3786,10 +3789,10 @@
         <v>164766.7855</v>
       </c>
       <c r="K18" s="1">
-        <v>171637.6086</v>
+        <v>171652.4165</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1318</v>
+        <v>13.1329</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -3839,10 +3842,10 @@
         <v>174559.899</v>
       </c>
       <c r="K19" s="1">
-        <v>179786.7337</v>
+        <v>179801.5415</v>
       </c>
       <c r="L19" s="1">
-        <v>13.0985</v>
+        <v>13.0996</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -3892,10 +3895,10 @@
         <v>198008.9898</v>
       </c>
       <c r="K20" s="1">
-        <v>190001.8372</v>
+        <v>190016.645</v>
       </c>
       <c r="L20" s="1">
-        <v>13.0603</v>
+        <v>13.0613</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -3945,10 +3948,10 @@
         <v>214646.0989</v>
       </c>
       <c r="K21" s="1">
-        <v>192699.3252</v>
+        <v>192714.133</v>
       </c>
       <c r="L21" s="1">
-        <v>13.0584</v>
+        <v>13.0594</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -3998,10 +4001,10 @@
         <v>232535.988</v>
       </c>
       <c r="K22" s="1">
-        <v>196064.8857</v>
+        <v>196079.6935</v>
       </c>
       <c r="L22" s="1">
-        <v>13.0638</v>
+        <v>13.0648</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -4051,10 +4054,10 @@
         <v>260575.196</v>
       </c>
       <c r="K23" s="1">
-        <v>198169.9542</v>
+        <v>198184.762</v>
       </c>
       <c r="L23" s="1">
-        <v>13.0722</v>
+        <v>13.0732</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -4104,10 +4107,10 @@
         <v>281656.8806</v>
       </c>
       <c r="K24" s="1">
-        <v>196870.8601</v>
+        <v>196890.8533</v>
       </c>
       <c r="L24" s="1">
-        <v>13.0629</v>
+        <v>13.0642</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -4157,10 +4160,10 @@
         <v>269313.7492</v>
       </c>
       <c r="K25" s="1">
-        <v>195784.8368</v>
+        <v>195809.1686</v>
       </c>
       <c r="L25" s="1">
-        <v>13.052</v>
+        <v>13.0536</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -4210,10 +4213,10 @@
         <v>290330.8799</v>
       </c>
       <c r="K26" s="1">
-        <v>228257.6361</v>
+        <v>228281.9679</v>
       </c>
       <c r="L26" s="1">
-        <v>13.1661</v>
+        <v>13.1675</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -4263,10 +4266,10 @@
         <v>301514.3521</v>
       </c>
       <c r="K27" s="1">
-        <v>233883.4864</v>
+        <v>233907.8182</v>
       </c>
       <c r="L27" s="1">
-        <v>13.1882</v>
+        <v>13.1896</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -4316,10 +4319,10 @@
         <v>310091.4433</v>
       </c>
       <c r="K28" s="1">
-        <v>242712.8193</v>
+        <v>242737.1511</v>
       </c>
       <c r="L28" s="1">
-        <v>13.2232</v>
+        <v>13.2245</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -4369,10 +4372,10 @@
         <v>351512.3809</v>
       </c>
       <c r="K29" s="1">
-        <v>254146.1305</v>
+        <v>254170.4623</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2621</v>
+        <v>13.2634</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -4422,10 +4425,10 @@
         <v>362108.9666</v>
       </c>
       <c r="K30" s="1">
-        <v>240886.3241</v>
+        <v>240963.6544</v>
       </c>
       <c r="L30" s="1">
-        <v>13.1631</v>
+        <v>13.1673</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -4475,10 +4478,10 @@
         <v>358498.9549</v>
       </c>
       <c r="K31" s="1">
-        <v>250327.4551</v>
+        <v>250404.7854</v>
       </c>
       <c r="L31" s="1">
-        <v>13.2354</v>
+        <v>13.2395</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -4528,10 +4531,10 @@
         <v>402660.4282</v>
       </c>
       <c r="K32" s="1">
-        <v>273994.2625</v>
+        <v>274071.5928</v>
       </c>
       <c r="L32" s="1">
-        <v>13.3485</v>
+        <v>13.3522</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -4581,10 +4584,10 @@
         <v>426869.6809</v>
       </c>
       <c r="K33" s="1">
-        <v>266731.3662</v>
+        <v>266837.7162</v>
       </c>
       <c r="L33" s="1">
-        <v>13.2978</v>
+        <v>13.3032</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -4634,10 +4637,10 @@
         <v>441427.1379</v>
       </c>
       <c r="K34" s="1">
-        <v>262505.2384</v>
+        <v>262628.4635</v>
       </c>
       <c r="L34" s="1">
-        <v>13.2593</v>
+        <v>13.2655</v>
       </c>
       <c r="M34" s="1">
         <v>0.75</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -4687,10 +4690,10 @@
         <v>478441.0158</v>
       </c>
       <c r="K35" s="1">
-        <v>267969.5933</v>
+        <v>268092.8184</v>
       </c>
       <c r="L35" s="1">
-        <v>13.3121</v>
+        <v>13.3182</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -4740,10 +4743,10 @@
         <v>484115.539</v>
       </c>
       <c r="K36" s="1">
-        <v>264282.695</v>
+        <v>264420.6537</v>
       </c>
       <c r="L36" s="1">
-        <v>13.2707</v>
+        <v>13.2776</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -4793,10 +4796,10 @@
         <v>501848.2016</v>
       </c>
       <c r="K37" s="1">
-        <v>278665.6246</v>
+        <v>278803.5833</v>
       </c>
       <c r="L37" s="1">
-        <v>13.4202</v>
+        <v>13.4269</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -4846,10 +4849,10 @@
         <v>489537.3713</v>
       </c>
       <c r="K38" s="1">
-        <v>298879.5704</v>
+        <v>299017.5291</v>
       </c>
       <c r="L38" s="1">
-        <v>13.5887</v>
+        <v>13.595</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -5720,10 +5723,10 @@
         <v>157151.0595</v>
       </c>
       <c r="K16" s="1">
-        <v>131795.1233</v>
+        <v>131808.9227</v>
       </c>
       <c r="L16" s="1">
-        <v>13.2465</v>
+        <v>13.2478</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -5773,10 +5776,10 @@
         <v>152687.5687</v>
       </c>
       <c r="K17" s="1">
-        <v>148590.9399</v>
+        <v>148604.7393</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3265</v>
+        <v>13.3278</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -5826,10 +5829,10 @@
         <v>164496.7675</v>
       </c>
       <c r="K18" s="1">
-        <v>174786.67</v>
+        <v>174800.4694</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1603</v>
+        <v>13.1613</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -5879,10 +5882,10 @@
         <v>174277.9136</v>
       </c>
       <c r="K19" s="1">
-        <v>184786.67</v>
+        <v>184800.4694</v>
       </c>
       <c r="L19" s="1">
-        <v>13.1189</v>
+        <v>13.1198</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -5932,10 +5935,10 @@
         <v>198061.9784</v>
       </c>
       <c r="K20" s="1">
-        <v>194786.67</v>
+        <v>194800.4694</v>
       </c>
       <c r="L20" s="1">
-        <v>13.0812</v>
+        <v>13.0821</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -5985,10 +5988,10 @@
         <v>214989.2755</v>
       </c>
       <c r="K21" s="1">
-        <v>201888.7692</v>
+        <v>201902.5686</v>
       </c>
       <c r="L21" s="1">
-        <v>13.0757</v>
+        <v>13.0766</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -6038,10 +6041,10 @@
         <v>233263.3243</v>
       </c>
       <c r="K22" s="1">
-        <v>205943.2669</v>
+        <v>205957.0663</v>
       </c>
       <c r="L22" s="1">
-        <v>13.0816</v>
+        <v>13.0825</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -6091,10 +6094,10 @@
         <v>262213.4951</v>
       </c>
       <c r="K23" s="1">
-        <v>208713.0339</v>
+        <v>208726.8333</v>
       </c>
       <c r="L23" s="1">
-        <v>13.0919</v>
+        <v>13.0928</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -6144,10 +6147,10 @@
         <v>283896.8301</v>
       </c>
       <c r="K24" s="1">
-        <v>207937.2424</v>
+        <v>207954.1384</v>
       </c>
       <c r="L24" s="1">
-        <v>13.0867</v>
+        <v>13.0878</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -6197,10 +6200,10 @@
         <v>270280.7199</v>
       </c>
       <c r="K25" s="1">
-        <v>207411.5287</v>
+        <v>207430.5249</v>
       </c>
       <c r="L25" s="1">
-        <v>13.0817</v>
+        <v>13.0829</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -6250,10 +6253,10 @@
         <v>291934.7824</v>
       </c>
       <c r="K26" s="1">
-        <v>242382.8036</v>
+        <v>242401.7998</v>
       </c>
       <c r="L26" s="1">
-        <v>13.1936</v>
+        <v>13.1947</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -6303,10 +6306,10 @@
         <v>303189.4169</v>
       </c>
       <c r="K27" s="1">
-        <v>249021.9741</v>
+        <v>249040.9703</v>
       </c>
       <c r="L27" s="1">
-        <v>13.2175</v>
+        <v>13.2186</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -6356,10 +6359,10 @@
         <v>311671.1857</v>
       </c>
       <c r="K28" s="1">
-        <v>259109.0787</v>
+        <v>259128.0749</v>
       </c>
       <c r="L28" s="1">
-        <v>13.254</v>
+        <v>13.255</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -6409,10 +6412,10 @@
         <v>355196.9265</v>
       </c>
       <c r="K29" s="1">
-        <v>272023.1989</v>
+        <v>272042.1951</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2938</v>
+        <v>13.2947</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -6462,10 +6465,10 @@
         <v>365835.5826</v>
       </c>
       <c r="K30" s="1">
-        <v>258631.1585</v>
+        <v>258703.6817</v>
       </c>
       <c r="L30" s="1">
-        <v>13.2017</v>
+        <v>13.2054</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -6515,10 +6518,10 @@
         <v>361225.49</v>
       </c>
       <c r="K31" s="1">
-        <v>269534.7877</v>
+        <v>269607.3109</v>
       </c>
       <c r="L31" s="1">
-        <v>13.2783</v>
+        <v>13.2818</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -6568,10 +6571,10 @@
         <v>407933.4759</v>
       </c>
       <c r="K32" s="1">
-        <v>295762.2792</v>
+        <v>295834.8024</v>
       </c>
       <c r="L32" s="1">
-        <v>13.3912</v>
+        <v>13.3945</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -6621,10 +6624,10 @@
         <v>433261.7836</v>
       </c>
       <c r="K33" s="1">
-        <v>288804.8199</v>
+        <v>288905.1424</v>
       </c>
       <c r="L33" s="1">
-        <v>13.3472</v>
+        <v>13.3518</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -6674,10 +6677,10 @@
         <v>448190.7622</v>
       </c>
       <c r="K34" s="1">
-        <v>285133.925</v>
+        <v>285248.9056</v>
       </c>
       <c r="L34" s="1">
-        <v>13.3167</v>
+        <v>13.3221</v>
       </c>
       <c r="M34" s="1">
         <v>0.75</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -6727,10 +6730,10 @@
         <v>487441.0487</v>
       </c>
       <c r="K35" s="1">
-        <v>291962.6355</v>
+        <v>292077.6161</v>
       </c>
       <c r="L35" s="1">
-        <v>13.3765</v>
+        <v>13.3817</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -6780,10 +6783,10 @@
         <v>492738.9278</v>
       </c>
       <c r="K36" s="1">
-        <v>288914.9079</v>
+        <v>289042.0678</v>
       </c>
       <c r="L36" s="1">
-        <v>13.3455</v>
+        <v>13.3514</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -6833,10 +6836,10 @@
         <v>511112.7046</v>
       </c>
       <c r="K37" s="1">
-        <v>305531.4325</v>
+        <v>305658.5924</v>
       </c>
       <c r="L37" s="1">
-        <v>13.5008</v>
+        <v>13.5064</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -6886,10 +6889,10 @@
         <v>496730.5169</v>
       </c>
       <c r="K38" s="1">
-        <v>328574.602</v>
+        <v>328701.7619</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6719</v>
+        <v>13.6772</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -7760,10 +7763,10 @@
         <v>157360.8642</v>
       </c>
       <c r="K16" s="1">
-        <v>136341.8021</v>
+        <v>136354.4906</v>
       </c>
       <c r="L16" s="1">
-        <v>13.2605</v>
+        <v>13.2617</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -7813,10 +7816,10 @@
         <v>152362.3366</v>
       </c>
       <c r="K17" s="1">
-        <v>154113.6703</v>
+        <v>154126.3587</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3407</v>
+        <v>13.3418</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -7866,10 +7869,10 @@
         <v>164188.9193</v>
       </c>
       <c r="K18" s="1">
-        <v>175061.3931</v>
+        <v>175074.0815</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2057</v>
+        <v>13.2066</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -7919,10 +7922,10 @@
         <v>173970.381</v>
       </c>
       <c r="K19" s="1">
-        <v>185061.3931</v>
+        <v>185074.0815</v>
       </c>
       <c r="L19" s="1">
-        <v>13.1616</v>
+        <v>13.1625</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -7972,10 +7975,10 @@
         <v>197730.766</v>
       </c>
       <c r="K20" s="1">
-        <v>195061.3931</v>
+        <v>195074.0815</v>
       </c>
       <c r="L20" s="1">
-        <v>13.1216</v>
+        <v>13.1224</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -8025,10 +8028,10 @@
         <v>214931.4608</v>
       </c>
       <c r="K21" s="1">
-        <v>211388.7136</v>
+        <v>211401.402</v>
       </c>
       <c r="L21" s="1">
-        <v>13.1063</v>
+        <v>13.1071</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -8078,10 +8081,10 @@
         <v>233611.5404</v>
       </c>
       <c r="K22" s="1">
-        <v>216668.4044</v>
+        <v>216681.0928</v>
       </c>
       <c r="L22" s="1">
-        <v>13.1129</v>
+        <v>13.1136</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -8131,10 +8134,10 @@
         <v>263531.1519</v>
       </c>
       <c r="K23" s="1">
-        <v>220183.1643</v>
+        <v>220195.8527</v>
       </c>
       <c r="L23" s="1">
-        <v>13.1248</v>
+        <v>13.1256</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -8184,10 +8187,10 @@
         <v>285857.8064</v>
       </c>
       <c r="K24" s="1">
-        <v>220008.2265</v>
+        <v>220021.6132</v>
       </c>
       <c r="L24" s="1">
-        <v>13.1238</v>
+        <v>13.1246</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -8237,10 +8240,10 @@
         <v>270875.4661</v>
       </c>
       <c r="K25" s="1">
-        <v>220129.214</v>
+        <v>220142.6007</v>
       </c>
       <c r="L25" s="1">
-        <v>13.1248</v>
+        <v>13.1256</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -8290,10 +8293,10 @@
         <v>293213.6208</v>
       </c>
       <c r="K26" s="1">
-        <v>257833.258</v>
+        <v>257846.6447</v>
       </c>
       <c r="L26" s="1">
-        <v>13.2326</v>
+        <v>13.2333</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -8343,10 +8346,10 @@
         <v>304544.9083</v>
       </c>
       <c r="K27" s="1">
-        <v>265620.3675</v>
+        <v>265633.7542</v>
       </c>
       <c r="L27" s="1">
-        <v>13.2579</v>
+        <v>13.2586</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -8396,10 +8399,10 @@
         <v>312923.1352</v>
       </c>
       <c r="K28" s="1">
-        <v>277128.2753</v>
+        <v>277141.662</v>
       </c>
       <c r="L28" s="1">
-        <v>13.2953</v>
+        <v>13.2959</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -8449,10 +8452,10 @@
         <v>358735.613</v>
       </c>
       <c r="K29" s="1">
-        <v>291714.9108</v>
+        <v>291728.2975</v>
       </c>
       <c r="L29" s="1">
-        <v>13.3354</v>
+        <v>13.336</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -8502,10 +8505,10 @@
         <v>369420.1758</v>
       </c>
       <c r="K30" s="1">
-        <v>278252.2859</v>
+        <v>278319.4817</v>
       </c>
       <c r="L30" s="1">
-        <v>13.2508</v>
+        <v>13.254</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -8555,10 +8558,10 @@
         <v>363714.8034</v>
       </c>
       <c r="K31" s="1">
-        <v>290830.8833</v>
+        <v>290898.0792</v>
       </c>
       <c r="L31" s="1">
-        <v>13.3311</v>
+        <v>13.3342</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -8608,10 +8611,10 @@
         <v>413215.4958</v>
       </c>
       <c r="K32" s="1">
-        <v>319947.3191</v>
+        <v>320014.5149</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4431</v>
+        <v>13.4459</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -8661,10 +8664,10 @@
         <v>439777.4067</v>
       </c>
       <c r="K33" s="1">
-        <v>313417.0984</v>
+        <v>313510.3865</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4057</v>
+        <v>13.4097</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -8714,10 +8717,10 @@
         <v>455117.3317</v>
       </c>
       <c r="K34" s="1">
-        <v>310456.6403</v>
+        <v>310561.7496</v>
       </c>
       <c r="L34" s="1">
-        <v>13.3835</v>
+        <v>13.3881</v>
       </c>
       <c r="M34" s="1">
         <v>0.75</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -8767,10 +8770,10 @@
         <v>496845.275</v>
       </c>
       <c r="K35" s="1">
-        <v>318899.8244</v>
+        <v>319004.9337</v>
       </c>
       <c r="L35" s="1">
-        <v>13.4501</v>
+        <v>13.4545</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -8820,10 +8823,10 @@
         <v>501723.6944</v>
       </c>
       <c r="K36" s="1">
-        <v>316674.0887</v>
+        <v>316788.0925</v>
       </c>
       <c r="L36" s="1">
-        <v>13.4298</v>
+        <v>13.4346</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -8873,10 +8876,10 @@
         <v>520807.5217</v>
       </c>
       <c r="K37" s="1">
-        <v>335898.2303</v>
+        <v>336012.2341</v>
       </c>
       <c r="L37" s="1">
-        <v>13.5903</v>
+        <v>13.5949</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -8926,10 +8929,10 @@
         <v>504102.2532</v>
       </c>
       <c r="K38" s="1">
-        <v>362230.9361</v>
+        <v>362344.94</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7634</v>
+        <v>13.7678</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -10542,10 +10545,10 @@
         <v>371106.9465</v>
       </c>
       <c r="K30" s="1">
-        <v>301620.3814</v>
+        <v>301642.7353</v>
       </c>
       <c r="L30" s="1">
-        <v>13.3837</v>
+        <v>13.3847</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -10595,10 +10598,10 @@
         <v>364201.2799</v>
       </c>
       <c r="K31" s="1">
-        <v>316115.8273</v>
+        <v>316138.1812</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4644</v>
+        <v>13.4653</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -10648,10 +10651,10 @@
         <v>416696.703</v>
       </c>
       <c r="K32" s="1">
-        <v>347177.857</v>
+        <v>347200.2108</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5644</v>
+        <v>13.5653</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -10701,10 +10704,10 @@
         <v>444619.5033</v>
       </c>
       <c r="K33" s="1">
-        <v>342610.6527</v>
+        <v>342651.2553</v>
       </c>
       <c r="L33" s="1">
-        <v>13.5417</v>
+        <v>13.5433</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -10754,10 +10757,10 @@
         <v>460414.3508</v>
       </c>
       <c r="K34" s="1">
-        <v>340544.8678</v>
+        <v>340593.7193</v>
       </c>
       <c r="L34" s="1">
-        <v>13.5281</v>
+        <v>13.5301</v>
       </c>
       <c r="M34" s="1">
         <v>0.75</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -10807,10 +10810,10 @@
         <v>504889.535</v>
       </c>
       <c r="K35" s="1">
-        <v>350894.576</v>
+        <v>350943.4275</v>
       </c>
       <c r="L35" s="1">
-        <v>13.5996</v>
+        <v>13.6015</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -10860,10 +10863,10 @@
         <v>509300.3713</v>
       </c>
       <c r="K36" s="1">
-        <v>349709.9795</v>
+        <v>349763.5649</v>
       </c>
       <c r="L36" s="1">
-        <v>13.59</v>
+        <v>13.5921</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -10913,10 +10916,10 @@
         <v>529171.2082</v>
       </c>
       <c r="K37" s="1">
-        <v>371978.0572</v>
+        <v>372031.6425</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7522</v>
+        <v>13.7542</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -10966,10 +10969,10 @@
         <v>509857.7014</v>
       </c>
       <c r="K38" s="1">
-        <v>402137.1771</v>
+        <v>402190.7625</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9226</v>
+        <v>13.9244</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.4437</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5887</v>
+        <v>13.595</v>
       </c>
       <c r="E3" s="1">
-        <v>13.6719</v>
+        <v>13.6772</v>
       </c>
       <c r="F3" s="1">
-        <v>13.7634</v>
+        <v>13.7678</v>
       </c>
       <c r="G3" s="1">
-        <v>13.9226</v>
+        <v>13.9244</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>108481.703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0632</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6372</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5112</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.3912</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2677</v>
       </c>
     </row>
   </sheetData>
